--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H2">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.806204333333334</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N2">
-        <v>14.418613</v>
+        <v>0.153373</v>
       </c>
       <c r="O2">
-        <v>0.7287437301541012</v>
+        <v>0.006671445085820153</v>
       </c>
       <c r="P2">
-        <v>0.7287437301541012</v>
+        <v>0.006671445085820154</v>
       </c>
       <c r="Q2">
-        <v>21.74194509574022</v>
+        <v>0.04594138250288889</v>
       </c>
       <c r="R2">
-        <v>195.677505861662</v>
+        <v>0.413472442526</v>
       </c>
       <c r="S2">
-        <v>0.3502785169859515</v>
+        <v>0.001108663875888722</v>
       </c>
       <c r="T2">
-        <v>0.3502785169859515</v>
+        <v>0.001108663875888722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H3">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.788987</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N3">
-        <v>5.366961</v>
+        <v>14.418613</v>
       </c>
       <c r="O3">
-        <v>0.2712562698458988</v>
+        <v>0.6271833037313775</v>
       </c>
       <c r="P3">
-        <v>0.2712562698458988</v>
+        <v>0.6271833037313777</v>
       </c>
       <c r="Q3">
-        <v>8.092884620245998</v>
+        <v>4.318954542156222</v>
       </c>
       <c r="R3">
-        <v>72.835961582214</v>
+        <v>38.870590879406</v>
       </c>
       <c r="S3">
-        <v>0.1303822454907028</v>
+        <v>0.1042256158092983</v>
       </c>
       <c r="T3">
-        <v>0.1303822454907028</v>
+        <v>0.1042256158092984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.109481</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H4">
-        <v>6.328443</v>
+        <v>2.695862</v>
       </c>
       <c r="I4">
-        <v>0.2241393587371326</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J4">
-        <v>0.2241393587371326</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.806204333333334</v>
+        <v>2.805828666666667</v>
       </c>
       <c r="N4">
-        <v>14.418613</v>
+        <v>8.417486</v>
       </c>
       <c r="O4">
-        <v>0.7287437301541012</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="P4">
-        <v>0.7287437301541012</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="Q4">
-        <v>10.13859672328434</v>
+        <v>2.521375626992445</v>
       </c>
       <c r="R4">
-        <v>91.247370509559</v>
+        <v>22.692380642932</v>
       </c>
       <c r="S4">
-        <v>0.1633401523604462</v>
+        <v>0.06084618970743907</v>
       </c>
       <c r="T4">
-        <v>0.1633401523604462</v>
+        <v>0.0608461897074391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>6.328443</v>
       </c>
       <c r="I5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.788987</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N5">
-        <v>5.366961</v>
+        <v>0.153373</v>
       </c>
       <c r="O5">
-        <v>0.2712562698458988</v>
+        <v>0.006671445085820153</v>
       </c>
       <c r="P5">
-        <v>0.2712562698458988</v>
+        <v>0.006671445085820154</v>
       </c>
       <c r="Q5">
-        <v>3.773834085747</v>
+        <v>0.1078458098043333</v>
       </c>
       <c r="R5">
-        <v>33.964506771723</v>
+        <v>0.970612288239</v>
       </c>
       <c r="S5">
-        <v>0.06079920637668636</v>
+        <v>0.002602550184215977</v>
       </c>
       <c r="T5">
-        <v>0.06079920637668636</v>
+        <v>0.002602550184215977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.778265</v>
+        <v>2.109481</v>
       </c>
       <c r="H6">
-        <v>8.334795</v>
+        <v>6.328443</v>
       </c>
       <c r="I6">
-        <v>0.2951998787862131</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J6">
-        <v>0.2951998787862131</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>14.418613</v>
       </c>
       <c r="O6">
-        <v>0.7287437301541012</v>
+        <v>0.6271833037313775</v>
       </c>
       <c r="P6">
-        <v>0.7287437301541012</v>
+        <v>0.6271833037313777</v>
       </c>
       <c r="Q6">
-        <v>13.35290928214833</v>
+        <v>10.13859672328434</v>
       </c>
       <c r="R6">
-        <v>120.176183539335</v>
+        <v>91.247370509559</v>
       </c>
       <c r="S6">
-        <v>0.2151250608077034</v>
+        <v>0.2446660358686918</v>
       </c>
       <c r="T6">
-        <v>0.2151250608077034</v>
+        <v>0.2446660358686919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.778265</v>
+        <v>2.109481</v>
       </c>
       <c r="H7">
-        <v>8.334795</v>
+        <v>6.328443</v>
       </c>
       <c r="I7">
-        <v>0.2951998787862131</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J7">
-        <v>0.2951998787862131</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.788987</v>
+        <v>2.805828666666667</v>
       </c>
       <c r="N7">
-        <v>5.366961</v>
+        <v>8.417486</v>
       </c>
       <c r="O7">
-        <v>0.2712562698458988</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="P7">
-        <v>0.2712562698458988</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="Q7">
-        <v>4.970279967554999</v>
+        <v>5.918842261588667</v>
       </c>
       <c r="R7">
-        <v>44.732519707995</v>
+        <v>53.269580354298</v>
       </c>
       <c r="S7">
-        <v>0.08007481797850964</v>
+        <v>0.1428343302923944</v>
       </c>
       <c r="T7">
-        <v>0.08007481797850964</v>
+        <v>0.1428343302923944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.399397</v>
+      </c>
+      <c r="H8">
+        <v>7.198191</v>
+      </c>
+      <c r="I8">
+        <v>0.4437166142620716</v>
+      </c>
+      <c r="J8">
+        <v>0.4437166142620716</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.153373</v>
+      </c>
+      <c r="O8">
+        <v>0.006671445085820153</v>
+      </c>
+      <c r="P8">
+        <v>0.006671445085820154</v>
+      </c>
+      <c r="Q8">
+        <v>0.122667572027</v>
+      </c>
+      <c r="R8">
+        <v>1.104008148243</v>
+      </c>
+      <c r="S8">
+        <v>0.002960231025715454</v>
+      </c>
+      <c r="T8">
+        <v>0.002960231025715454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.399397</v>
+      </c>
+      <c r="H9">
+        <v>7.198191</v>
+      </c>
+      <c r="I9">
+        <v>0.4437166142620716</v>
+      </c>
+      <c r="J9">
+        <v>0.4437166142620716</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.806204333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.418613</v>
+      </c>
+      <c r="O9">
+        <v>0.6271833037313775</v>
+      </c>
+      <c r="P9">
+        <v>0.6271833037313777</v>
+      </c>
+      <c r="Q9">
+        <v>11.531992258787</v>
+      </c>
+      <c r="R9">
+        <v>103.787930329083</v>
+      </c>
+      <c r="S9">
+        <v>0.2782916520533874</v>
+      </c>
+      <c r="T9">
+        <v>0.2782916520533874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.399397</v>
+      </c>
+      <c r="H10">
+        <v>7.198191</v>
+      </c>
+      <c r="I10">
+        <v>0.4437166142620716</v>
+      </c>
+      <c r="J10">
+        <v>0.4437166142620716</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.805828666666667</v>
+      </c>
+      <c r="N10">
+        <v>8.417486</v>
+      </c>
+      <c r="O10">
+        <v>0.3661452511828023</v>
+      </c>
+      <c r="P10">
+        <v>0.3661452511828023</v>
+      </c>
+      <c r="Q10">
+        <v>6.732296885314001</v>
+      </c>
+      <c r="R10">
+        <v>60.590671967826</v>
+      </c>
+      <c r="S10">
+        <v>0.1624647311829688</v>
+      </c>
+      <c r="T10">
+        <v>0.1624647311829688</v>
       </c>
     </row>
   </sheetData>
